--- a/archivos/Inventario-BaPlantel.xlsx
+++ b/archivos/Inventario-BaPlantel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F355BF55-1E64-425A-88DC-3788286F2228}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE422FCB-76F5-433F-A30F-3ED40E9B65DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,6 +779,15 @@
       <c r="G5" s="17"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>

--- a/archivos/Inventario-BaPlantel.xlsx
+++ b/archivos/Inventario-BaPlantel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE422FCB-76F5-433F-A30F-3ED40E9B65DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A48746-6CB6-4607-B9BC-3E293D86B46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -342,16 +342,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>494805</xdr:colOff>
+      <xdr:colOff>885825</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -365,13 +365,20 @@
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19080" y="0"/>
-          <a:ext cx="2765520" cy="804600"/>
+          <a:off x="28575" y="0"/>
+          <a:ext cx="3019425" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -685,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H5" sqref="H5:R5"/>
     </sheetView>
   </sheetViews>

--- a/archivos/Inventario-BaPlantel.xlsx
+++ b/archivos/Inventario-BaPlantel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Nicaragua\archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A48746-6CB6-4607-B9BC-3E293D86B46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D668ED-CAD2-41C6-94BE-8EC9A1DDCFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Principal" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -191,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -208,6 +208,12 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -222,9 +228,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +255,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,7 +699,7 @@
   <dimension ref="A1:S1010"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:R5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,74 +722,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
     </row>
     <row r="2" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="3"/>
@@ -795,74 +801,85 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
+      <c r="S5" s="13"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
     </row>
     <row r="7" spans="2:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="18"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="19" t="s">
+      <c r="G8" s="21"/>
+      <c r="H8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="12" t="s">
+      <c r="K8" s="26"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N8" s="23"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="12" t="s">
+      <c r="N8" s="24"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="12" t="s">
+      <c r="Q8" s="15"/>
+      <c r="R8" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="S8" s="13"/>
+      <c r="S8" s="15"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="15"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="17"/>
     </row>
     <row r="10" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
